--- a/public/downloads/mau-du-lieu-truong-hoc.xlsx
+++ b/public/downloads/mau-du-lieu-truong-hoc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tên</t>
   </si>
@@ -33,19 +33,53 @@
   </si>
   <si>
     <t>Tọa độ</t>
+  </si>
+  <si>
+    <t>Địa điểm</t>
+  </si>
+  <si>
+    <t>Xã/Phường</t>
+  </si>
+  <si>
+    <t>Quận/Huyện</t>
+  </si>
+  <si>
+    <t>Sức chứa</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>THPT Đường An</t>
+  </si>
+  <si>
+    <t>Hải Dương</t>
+  </si>
+  <si>
+    <t>Xã Phú Tân</t>
+  </si>
+  <si>
+    <t>Huyện Đầm Dơi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,8 +102,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,26 +390,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>